--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_16_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130987.2398648915</v>
+        <v>128548.7667651451</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673429</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +665,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>126.7498226612763</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>140.1825430744014</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247633</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -826,16 +826,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3.444282854096467</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>30.96411613815228</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>71.31340860082693</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>94.30276161297009</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>281.9408634908473</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1057,7 +1057,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1108,16 +1108,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>108.0302555278217</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>32.93805507567743</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>133.6650819731286</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,7 +1184,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>163.0860508096754</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.84935903930806</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>61.17118126752713</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1531,19 +1531,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922704</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>4.019807611470446</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1585,7 +1585,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>167.3637267182081</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1771,13 +1771,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465707</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>110.1444095748035</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2245,13 +2245,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>4.019807611472022</v>
+        <v>103.1686991936188</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740338</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2485,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>140.7058473537591</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2567,10 +2567,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2725,10 +2725,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2956,13 +2956,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1686991936193</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>222.8161206669567</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3433,16 +3433,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,13 +3475,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>182.4326803923963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1221.525483338121</v>
+        <v>921.7704558796247</v>
       </c>
       <c r="C2" t="n">
-        <v>852.5629663977095</v>
+        <v>552.807938939213</v>
       </c>
       <c r="D2" t="n">
-        <v>494.2972677909589</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="E2" t="n">
-        <v>108.5090151927147</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="F2" t="n">
-        <v>108.5090151927147</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>194.5422403324625</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2724.499068909249</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2371.730413639134</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1998.264655378055</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1608.125323402243</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4425,31 +4425,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="C4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="D4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="E4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836212</v>
       </c>
       <c r="F4" t="n">
-        <v>362.8175152271517</v>
+        <v>138.5458624936247</v>
       </c>
       <c r="G4" t="n">
-        <v>195.1146786018707</v>
+        <v>138.5458624936247</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>138.5458624936247</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
@@ -4507,10 +4507,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
         <v>1645.778206672847</v>
@@ -4522,16 +4522,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>880.2242361621296</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W4" t="n">
-        <v>590.8070661251691</v>
+        <v>590.8070661251686</v>
       </c>
       <c r="X4" t="n">
-        <v>362.8175152271517</v>
+        <v>362.8175152271513</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.8175152271517</v>
+        <v>142.0249360836212</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2303.170539913434</v>
+        <v>1243.280836875046</v>
       </c>
       <c r="C5" t="n">
-        <v>1934.208022973022</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="D5" t="n">
-        <v>1575.942324366272</v>
+        <v>874.3183199346347</v>
       </c>
       <c r="E5" t="n">
-        <v>1190.154071768027</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3230.350506848594</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3024.372759232816</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>3024.372759232816</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V5" t="n">
-        <v>2693.309871889246</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W5" t="n">
-        <v>2693.309871889246</v>
+        <v>2393.48576717606</v>
       </c>
       <c r="X5" t="n">
-        <v>2693.309871889246</v>
+        <v>2020.02000891498</v>
       </c>
       <c r="Y5" t="n">
-        <v>2303.170539913434</v>
+        <v>1629.880676939168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>797.4834000772721</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="C7" t="n">
-        <v>628.5472171493652</v>
+        <v>478.4305777370295</v>
       </c>
       <c r="D7" t="n">
         <v>478.4305777370295</v>
@@ -4714,25 +4714,25 @@
         <v>331.5406302391191</v>
       </c>
       <c r="G7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1314.89012101225</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V7" t="n">
-        <v>1314.89012101225</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W7" t="n">
-        <v>1025.472950975289</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X7" t="n">
-        <v>797.4834000772721</v>
+        <v>647.3667606649364</v>
       </c>
       <c r="Y7" t="n">
-        <v>797.4834000772721</v>
+        <v>647.3667606649364</v>
       </c>
     </row>
     <row r="8">
@@ -4778,52 +4778,52 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2065.110222835253</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="C8" t="n">
-        <v>1696.147705894841</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D8" t="n">
-        <v>1337.882007288091</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>952.0937546898465</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>541.107849900239</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
@@ -4832,22 +4832,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136266</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136266</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136266</v>
+        <v>3050.581768480028</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136266</v>
+        <v>2697.813113209913</v>
       </c>
       <c r="X8" t="n">
-        <v>2841.849394875187</v>
+        <v>2324.347354948834</v>
       </c>
       <c r="Y8" t="n">
-        <v>2451.710062899375</v>
+        <v>1934.208022973022</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
@@ -4884,49 +4884,49 @@
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>866.1004720732712</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="C10" t="n">
-        <v>697.1642891453644</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="D10" t="n">
-        <v>547.0476497330286</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>399.1345561506355</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>252.2446086527251</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>84.5417720274441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>84.5417720274441</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>1094.090022971289</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X10" t="n">
-        <v>866.1004720732712</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="Y10" t="n">
-        <v>866.1004720732712</v>
+        <v>529.0179941377679</v>
       </c>
     </row>
     <row r="11">
@@ -5021,16 +5021,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5039,19 +5039,19 @@
         <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5124,19 +5124,19 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O12" t="n">
-        <v>2148.04349261611</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>849.3843576263199</v>
+        <v>576.8388927589107</v>
       </c>
       <c r="C13" t="n">
-        <v>680.448174698413</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="D13" t="n">
-        <v>530.3315352860773</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="E13" t="n">
-        <v>382.4184417036842</v>
+        <v>407.9027098310038</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>261.0127623330935</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2442.902671851502</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2260.047837506407</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>2040.446372529348</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1751.371145873545</v>
       </c>
       <c r="V13" t="n">
-        <v>1769.232122535068</v>
+        <v>1496.686657667658</v>
       </c>
       <c r="W13" t="n">
-        <v>1479.814952498107</v>
+        <v>1207.269487630698</v>
       </c>
       <c r="X13" t="n">
-        <v>1251.82540160009</v>
+        <v>979.2799367326805</v>
       </c>
       <c r="Y13" t="n">
-        <v>1031.03282245656</v>
+        <v>758.4873575891504</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1360811687896</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L15" t="n">
-        <v>904.4616873845483</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M15" t="n">
-        <v>1501.8401750111</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2367.795837888943</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>874.8686257536395</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>705.9324428257327</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>555.8158034133969</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5461,25 +5461,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1505.299220625427</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1277.309669727409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1056.517090583879</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5592,28 +5592,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,19 +5738,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075807</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597619</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
         <v>93.81666304797187</v>
@@ -5917,7 +5917,7 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
@@ -5926,34 +5926,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="23">
@@ -5966,28 +5966,28 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>554.5813165460164</v>
+        <v>513.8536007400703</v>
       </c>
       <c r="C25" t="n">
-        <v>385.6451336181095</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D25" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E25" t="n">
-        <v>235.5284942057738</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6145,52 +6145,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782948</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038334</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797736</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N25" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T25" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U25" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V25" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W25" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138402</v>
       </c>
       <c r="Y25" t="n">
-        <v>736.2297813762561</v>
+        <v>695.50206557031</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6306,25 +6306,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637306</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>1814.118720444889</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O27" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6452,13 +6452,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6470,10 +6470,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6543,25 +6543,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2341.919755080347</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>577.8620388433919</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>408.925855915485</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
         <v>93.81666304797187</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1752.394291958027</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1497.70980375214</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1208.292633715179</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>980.3030828171618</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>759.5105036736317</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
@@ -6941,13 +6941,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,10 +6971,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,7 +7160,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362687</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O39" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7312,16 +7312,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1870.702844468417</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="P42" t="n">
-        <v>2294.325993963485</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="Q42" t="n">
-        <v>2527.587654338368</v>
+        <v>2530.951795518647</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,16 +7549,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7622,31 +7622,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7786,16 +7786,16 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.119104808822158e-12</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22553,19 +22553,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>342.2044325259952</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22604,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5697153957335</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>25.03901180901118</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23419,19 +23419,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>62.35543909865124</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>84.77391660561989</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23659,13 +23659,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>45.44677382459308</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23701,7 +23701,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>176.3785887617875</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24133,13 +24133,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>142.4141550350971</v>
+        <v>43.26526345295035</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>45.44677382459402</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24373,13 +24373,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>40.32043864788548</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24613,10 +24613,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24844,13 +24844,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>43.2652634529499</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25120,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25321,16 +25321,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,13 +25363,13 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>69.70496293143168</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998850.9525846897</v>
+        <v>998850.9525846898</v>
       </c>
     </row>
     <row r="3">
@@ -26314,43 +26314,43 @@
         <v>317255.8761406863</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923205</v>
+        <v>348942.7521923203</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
+        <v>343037.3048682527</v>
+      </c>
+      <c r="F2" t="n">
         <v>343037.3048682528</v>
       </c>
-      <c r="F2" t="n">
-        <v>343037.3048682527</v>
-      </c>
       <c r="G2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.304868253</v>
       </c>
       <c r="H2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="I2" t="n">
-        <v>343037.304868253</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="J2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="K2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="M2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="N2" t="n">
         <v>343037.3048682527</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682529</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682528</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.23934546727</v>
+        <v>47189.23934546747</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813252</v>
+        <v>89744.12305813257</v>
       </c>
       <c r="D4" t="n">
-        <v>89744.12305813246</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="E4" t="n">
         <v>10557.08828678121</v>
@@ -26448,7 +26448,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678123</v>
       </c>
       <c r="N4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1166612.049493767</v>
+        <v>-1166798.442882306</v>
       </c>
       <c r="C6" t="n">
-        <v>151264.6885727947</v>
+        <v>151264.6885727945</v>
       </c>
       <c r="D6" t="n">
-        <v>151264.6885727946</v>
+        <v>151264.6885727944</v>
       </c>
       <c r="E6" t="n">
-        <v>-94054.77504979065</v>
+        <v>-94089.51297522646</v>
       </c>
       <c r="F6" t="n">
-        <v>231357.6867575643</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="G6" t="n">
-        <v>231357.6867575644</v>
+        <v>231322.948832129</v>
       </c>
       <c r="H6" t="n">
-        <v>231357.6867575643</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="I6" t="n">
-        <v>231357.6867575647</v>
+        <v>231322.9488321288</v>
       </c>
       <c r="J6" t="n">
-        <v>13826.48436028685</v>
+        <v>13791.74643485133</v>
       </c>
       <c r="K6" t="n">
-        <v>231357.6867575645</v>
+        <v>231322.9488321288</v>
       </c>
       <c r="L6" t="n">
-        <v>231357.6867575643</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="M6" t="n">
-        <v>146302.6588220525</v>
+        <v>146267.9208966169</v>
       </c>
       <c r="N6" t="n">
-        <v>231357.6867575644</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="O6" t="n">
-        <v>231357.6867575646</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="P6" t="n">
-        <v>231357.6867575645</v>
+        <v>231322.9488321287</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,13 +27388,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>68.71729312745828</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>167.8579417260441</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27543,16 +27543,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>141.9767651688348</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>113.7908987761685</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>14.88500017520575</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>67.30010522656573</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -27828,16 +27828,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>178.1815826777912</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>192.7716003133597</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>277.2566436803248</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,7 +27904,7 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>40.8319193299447</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,10 +28011,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>78.50306137053003</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,13 +28056,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>164.53847412151</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -28989,7 +28989,7 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29287,10 +29287,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,22 +31844,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>430.400187030115</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>543.0832917018711</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>305.187676947251</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,16 +32090,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>290.1088399635148</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32312,10 +32312,10 @@
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>163.5723821283055</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
@@ -32330,13 +32330,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>399.4395445221152</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32482,7 +32482,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460027</v>
@@ -32546,13 +32546,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33026,28 +33026,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P27" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,28 +33263,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>316.2462973459355</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33415,7 +33415,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
@@ -33430,7 +33430,7 @@
         <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
         <v>926.5868626460027</v>
@@ -33497,7 +33497,7 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>454.5879800486398</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>422.1299181110993</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33898,13 +33898,13 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
         <v>926.5868626460027</v>
@@ -33971,22 +33971,22 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>171.4104471179106</v>
+        <v>168.0123247135882</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34381,7 +34381,7 @@
         <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
         <v>790.8204499236507</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>536.8001439125376</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35492,22 +35492,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>291.8458072502408</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>409.1088842875408</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>167.346237972892</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,16 +35738,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>150.1270658774933</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,13 +35978,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>265.4651371077849</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36130,7 +36130,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.488651224316</v>
@@ -36194,13 +36194,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010443</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295242</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36674,28 +36674,28 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P27" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>176.264523259914</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37063,7 +37063,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
@@ -37078,7 +37078,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
         <v>696.488651224316</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>311.9917356041954</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>283.5755383312251</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,13 +37546,13 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O38" t="n">
         <v>696.488651224316</v>
@@ -37619,22 +37619,22 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>25.73094315394662</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38029,7 +38029,7 @@
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>394.6661099905193</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
